--- a/medicine/Mort/Nécropole_nationale_de_Bligny/Nécropole_nationale_de_Bligny.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Bligny/Nécropole_nationale_de_Bligny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bligny</t>
+          <t>Nécropole_nationale_de_Bligny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  nécropole nationale de La Croix-Ferlin, est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Bligny dans le département de la Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bligny</t>
+          <t>Nécropole_nationale_de_Bligny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire français de Bligny se trouve à dix-sept kilomètres à l'ouest de Reims, sur la R.D 380 sur une hauteur, au lieu-dit Croix Ferlin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bligny</t>
+          <t>Nécropole_nationale_de_Bligny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière militaire fut créé en 1918. Il regroupe les tombes des cimetières provisoires de
-Romigny, Bligny, Bouilly, Sacy, Champigny, Ville-Dommange, Bouleuse, Courmas, Savigny-sur-Ardres, Pargny-les-Reims, Lagery, Courville, Saint-Gilles, Saint-Euphraise, Tramery, Lhéry, Vrigny, Poilly, Aubilly, Ville-en-Tardenois. Il a été aménagé de 1920 à 1923 et réhabilité en 1990[1].
+Romigny, Bligny, Bouilly, Sacy, Champigny, Ville-Dommange, Bouleuse, Courmas, Savigny-sur-Ardres, Pargny-les-Reims, Lagery, Courville, Saint-Gilles, Saint-Euphraise, Tramery, Lhéry, Vrigny, Poilly, Aubilly, Ville-en-Tardenois. Il a été aménagé de 1920 à 1923 et réhabilité en 1990.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Bligny</t>
+          <t>Nécropole_nationale_de_Bligny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole s'étend sur 1,01 ha, elle abrite les tombes de 4 554 soldats français dont 2 148 inhumés dans des tombes individuelles et 2 506 en ossuaires, un soldat russe tués pendant la Première Guerre mondiale. Ces soldats furent relevés sur les communes avoisinantes. Y sont aussi enterrés deux soldats français tombés lors de la Seconde Guerre mondiale.
 </t>
